--- a/BedsPlan/BedsPlan.xlsx
+++ b/BedsPlan/BedsPlan.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="3405" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="4680" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ResultTemplate" sheetId="3" state="hidden" r:id="rId1"/>
+    <sheet name="ResultTemplate" sheetId="3" r:id="rId1"/>
     <sheet name="Plan" sheetId="1" r:id="rId2"/>
-    <sheet name="Result" sheetId="4" r:id="rId3"/>
-    <sheet name="Beds" sheetId="2" r:id="rId4"/>
+    <sheet name="PlanToPrint" sheetId="5" r:id="rId3"/>
+    <sheet name="Result" sheetId="4" r:id="rId4"/>
+    <sheet name="Beds" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
   <si>
     <t>Id</t>
   </si>
@@ -62,9 +63,6 @@
     <t>700,800,900</t>
   </si>
   <si>
-    <t>орех,бук, венге, венге темный, белый</t>
-  </si>
-  <si>
     <t>Милана</t>
   </si>
   <si>
@@ -74,9 +72,6 @@
     <t>900,1200,1400,1600,1800,2000</t>
   </si>
   <si>
-    <t>Амели Экстра</t>
-  </si>
-  <si>
     <t>Марио</t>
   </si>
   <si>
@@ -146,9 +141,6 @@
     <t>смену от</t>
   </si>
   <si>
-    <t>2015 г.</t>
-  </si>
-  <si>
     <t>Приемо-сдаточная накладная №</t>
   </si>
   <si>
@@ -192,6 +184,201 @@
   </si>
   <si>
     <t>(прописью)</t>
+  </si>
+  <si>
+    <t>орех,бук,венге,венге темный,белый</t>
+  </si>
+  <si>
+    <t>Ясна</t>
+  </si>
+  <si>
+    <t>800, 900</t>
+  </si>
+  <si>
+    <t>Лика</t>
+  </si>
+  <si>
+    <t>Лика без изн</t>
+  </si>
+  <si>
+    <t>Лика пр пл</t>
+  </si>
+  <si>
+    <t>Лика пр пл без изн</t>
+  </si>
+  <si>
+    <t>Лика люкс</t>
+  </si>
+  <si>
+    <t>Милана люкс</t>
+  </si>
+  <si>
+    <t>МаритаS лам</t>
+  </si>
+  <si>
+    <t>1200,1400,1600,1800,2000</t>
+  </si>
+  <si>
+    <t>МаритаN лам</t>
+  </si>
+  <si>
+    <t>МаритаN п/р</t>
+  </si>
+  <si>
+    <t>МаритаV п/р</t>
+  </si>
+  <si>
+    <t>Марита люкс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марита люкс масс </t>
+  </si>
+  <si>
+    <t>Милена лам</t>
+  </si>
+  <si>
+    <t>Милена п/р</t>
+  </si>
+  <si>
+    <t>София лам</t>
+  </si>
+  <si>
+    <t>София п/р</t>
+  </si>
+  <si>
+    <t>София люкс лам</t>
+  </si>
+  <si>
+    <t>София люкс п/р</t>
+  </si>
+  <si>
+    <t>София люкс масс п/р</t>
+  </si>
+  <si>
+    <t>София люкс мас с ящ</t>
+  </si>
+  <si>
+    <t>Соната</t>
+  </si>
+  <si>
+    <t>Нова лам</t>
+  </si>
+  <si>
+    <t>Нова классика</t>
+  </si>
+  <si>
+    <t>Нова без изн</t>
+  </si>
+  <si>
+    <t>Нова п/р</t>
+  </si>
+  <si>
+    <t>Прованс лам</t>
+  </si>
+  <si>
+    <t>Прованс п/р</t>
+  </si>
+  <si>
+    <t>Катарина лам</t>
+  </si>
+  <si>
+    <t>Катарина п/р</t>
+  </si>
+  <si>
+    <t>Грета</t>
+  </si>
+  <si>
+    <t>Айрис лам</t>
+  </si>
+  <si>
+    <t>Айрис без изн</t>
+  </si>
+  <si>
+    <t>Айрис п/р</t>
+  </si>
+  <si>
+    <t>Сити лам</t>
+  </si>
+  <si>
+    <t>Сити п/р</t>
+  </si>
+  <si>
+    <t>Сити без изн</t>
+  </si>
+  <si>
+    <t>Грейс</t>
+  </si>
+  <si>
+    <t>Грейс люкс</t>
+  </si>
+  <si>
+    <t>Комод Милена</t>
+  </si>
+  <si>
+    <t>Комод Марита</t>
+  </si>
+  <si>
+    <t>Комод Монако</t>
+  </si>
+  <si>
+    <t>Комод Прованс</t>
+  </si>
+  <si>
+    <t>Комод Айрис</t>
+  </si>
+  <si>
+    <t>Комод Сити</t>
+  </si>
+  <si>
+    <t>Тумба Милена</t>
+  </si>
+  <si>
+    <t>Тумба Марита</t>
+  </si>
+  <si>
+    <t>Тумба Монако</t>
+  </si>
+  <si>
+    <t>Тумба Прованс</t>
+  </si>
+  <si>
+    <t>Тумба Айрис</t>
+  </si>
+  <si>
+    <t>Тумба Сити</t>
+  </si>
+  <si>
+    <t>Пуф</t>
+  </si>
+  <si>
+    <t>Маус</t>
+  </si>
+  <si>
+    <t>желто-зеленый,красно-синий</t>
+  </si>
+  <si>
+    <t>Люлька</t>
+  </si>
+  <si>
+    <t>Ящик Марио</t>
+  </si>
+  <si>
+    <t>ЯщикЯсна</t>
+  </si>
+  <si>
+    <t>Ящик Лика 2-спальн</t>
+  </si>
+  <si>
+    <t>Рама с ножками</t>
+  </si>
+  <si>
+    <t>800,900,1200,1400,1600,1800,2000</t>
+  </si>
+  <si>
+    <t>без покрытия,лак</t>
+  </si>
+  <si>
+    <t>2016 г.</t>
   </si>
 </sst>
 </file>
@@ -494,23 +681,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -529,12 +701,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -546,9 +712,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
@@ -570,80 +733,36 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -660,19 +779,36 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F0C583D81DEED142B9198CA1311A549F9BB31"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4A5B185774D4C644D5B49C69418967FF8CC444"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5821"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="873"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="36B26063B3EBEA3459D3B8BD3D48F181BF1D33"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="6165"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1111"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -689,18 +825,18 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="36B26063B3EBEA3459D3B8BD3D48F181BF1D33"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F0C583D81DEED142B9198CA1311A549F9BB31"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="6165"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1111"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -743,7 +879,7 @@
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:srgbClr val="E1E1E1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -802,7 +938,7 @@
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:srgbClr val="E1E1E1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -836,8 +972,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>723900</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
@@ -886,6 +1022,76 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1171574</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>352425</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="_ActiveXWrapper4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -897,7 +1103,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="E1E1E1"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1155,8 +1361,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,7 +1376,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1182,54 +1388,54 @@
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="15"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="28"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
@@ -1241,139 +1447,139 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="F7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="G7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="30" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="15">
+      <c r="G19" s="12">
         <f>SUM(G8:G18)</f>
         <v>0</v>
       </c>
@@ -1382,7 +1588,7 @@
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -1390,19 +1596,19 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="36"/>
+      <c r="A21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="28"/>
       <c r="D21" s="10"/>
       <c r="E21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
+        <v>50</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1423,7 +1629,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1640,7 @@
     <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="8" max="8" width="12.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" style="2" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="2" customWidth="1"/>
@@ -1446,127 +1652,127 @@
     <row r="1" spans="1:14" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="38"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="38"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="38"/>
+      <c r="N6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1577,8 +1783,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>400050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>400050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -1597,57 +1878,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>400050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>400050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId8" name="_ActiveXWrapper3"/>
+        <control shapeId="1025" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1655,6 +1886,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист5"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1"/>
@@ -1669,17 +1915,19 @@
     <col min="7" max="7" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData/>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A2" sqref="A2:H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,119 +1991,1232 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
+      <c r="E6" s="1">
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="C7">
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36">
         <v>1900</v>
       </c>
-      <c r="D7">
+      <c r="D36">
         <v>900</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>54</v>
+      </c>
+      <c r="H62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/BedsPlan/BedsPlan.xlsx
+++ b/BedsPlan/BedsPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="4680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ResultTemplate" sheetId="3" r:id="rId1"/>
@@ -779,36 +779,19 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4A5B185774D4C644D5B49C69418967FF8CC444"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F0C583D81DEED142B9198CA1311A549F9BB31"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5821"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="873"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1111"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="36B26063B3EBEA3459D3B8BD3D48F181BF1D33"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="6165"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1111"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -825,18 +808,35 @@
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4A5B185774D4C644D5B49C69418967FF8CC444"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4260"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1058"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F0C583D81DEED142B9198CA1311A549F9BB31"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="153B24F7E169C7144FB1843010F77CAD9B18D1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="6165"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1111"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -967,22 +967,86 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>914400</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>723900</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>400050</xdr:rowOff>
+          <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="_ActiveXWrapper3" hidden="1">
+            <xdr:cNvPr id="1028" name="_ActiveXWrapper4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="_ActiveXWrapper1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1013,76 +1077,6 @@
                   <a:headEnd/>
                   <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>1171574</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>352425</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="_ActiveXWrapper4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1028"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd type="none" w="med" len="med"/>
-                </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -1629,7 +1623,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,43 +1777,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>400050</xdr:rowOff>
               </to>
@@ -1828,13 +1797,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId6" name="_ActiveXWrapper3"/>
+        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="1026" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1853,32 +1822,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId8" name="_ActiveXWrapper2"/>
+        <control shapeId="1026" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="1028" r:id="rId8" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>400050</xdr:rowOff>
+                <xdr:rowOff>381000</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId10" name="_ActiveXWrapper1"/>
+        <control shapeId="1028" r:id="rId8" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1886,17 +1855,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
 

--- a/BedsPlan/BedsPlan.xlsx
+++ b/BedsPlan/BedsPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="7500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ResultTemplate" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="120">
   <si>
     <t>Id</t>
   </si>
@@ -379,6 +379,15 @@
   </si>
   <si>
     <t>2016 г.</t>
+  </si>
+  <si>
+    <t>План производства</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t>по</t>
   </si>
 </sst>
 </file>
@@ -666,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -757,6 +766,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -779,14 +792,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F0C583D81DEED142B9198CA1311A549F9BB31"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4A5B185774D4C644D5B49C69418967FF8CC444"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1111"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4260"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1058"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -813,14 +826,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4A5B185774D4C644D5B49C69418967FF8CC444"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F0C583D81DEED142B9198CA1311A549F9BB31"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4260"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1058"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1111"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -837,7 +850,7 @@
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="6165"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1111"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1033,13 +1046,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1622,7 +1635,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -1777,27 +1790,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>400050</xdr:rowOff>
+                <xdr:rowOff>381000</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1827,27 +1840,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId8" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="1025" r:id="rId8" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>381000</xdr:rowOff>
+                <xdr:rowOff>400050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId8" name="_ActiveXWrapper4"/>
+        <control shapeId="1025" r:id="rId8" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1857,15 +1870,41 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист5"/>
-  <dimension ref="A1"/>
+  <dimension ref="A3:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="45"/>
+    </row>
+  </sheetData>
   <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1874,19 +1913,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId5">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>

--- a/BedsPlan/BedsPlan.xlsx
+++ b/BedsPlan/BedsPlan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Documents\Visual Studio 2015\Projects\BedsPlan\BedsPlan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koliada\Source\Repos\BedsPlan\BedsPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="7500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="5625"/>
   </bookViews>
   <sheets>
     <sheet name="ResultTemplate" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="131">
   <si>
     <t>Id</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Ящики</t>
   </si>
   <si>
-    <t>Перегородки</t>
-  </si>
-  <si>
     <t>Ламели</t>
   </si>
   <si>
@@ -102,18 +99,6 @@
     <t>Срок</t>
   </si>
   <si>
-    <t>Дата изготовления</t>
-  </si>
-  <si>
-    <t>Дата передачи</t>
-  </si>
-  <si>
-    <t>Ответственный</t>
-  </si>
-  <si>
-    <t>№ прихода</t>
-  </si>
-  <si>
     <t>К-во</t>
   </si>
   <si>
@@ -388,6 +373,54 @@
   </si>
   <si>
     <t>по</t>
+  </si>
+  <si>
+    <t>Decoration</t>
+  </si>
+  <si>
+    <t>пат.зол., пат.сер.</t>
+  </si>
+  <si>
+    <t>филенка,19 мм,интарсия</t>
+  </si>
+  <si>
+    <t>Managers:</t>
+  </si>
+  <si>
+    <t>Алла,Александр, Евгений</t>
+  </si>
+  <si>
+    <t>Доп. Отделка</t>
+  </si>
+  <si>
+    <t>Bedheads</t>
+  </si>
+  <si>
+    <t>№ прих.</t>
+  </si>
+  <si>
+    <t>Перег.</t>
+  </si>
+  <si>
+    <t>Дата изг.</t>
+  </si>
+  <si>
+    <t>Дата пер.</t>
+  </si>
+  <si>
+    <t>Ответств.</t>
+  </si>
+  <si>
+    <t>Изг-е</t>
+  </si>
+  <si>
+    <t>ящ</t>
+  </si>
+  <si>
+    <t>перег</t>
+  </si>
+  <si>
+    <t>ус.лам</t>
   </si>
 </sst>
 </file>
@@ -742,6 +775,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -769,7 +803,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -792,14 +825,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4A5B185774D4C644D5B49C69418967FF8CC444"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F0C583D81DEED142B9198CA1311A549F9BB31"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4260"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1058"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1111"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -826,14 +859,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F0C583D81DEED142B9198CA1311A549F9BB31"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4A5B185774D4C644D5B49C69418967FF8CC444"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1111"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4260"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1058"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -985,8 +1018,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
@@ -1368,8 +1401,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,7 +1416,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1395,52 +1428,52 @@
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
+        <v>26</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="12"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
       <c r="G4" s="18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
+        <v>31</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="20"/>
       <c r="F5" s="18" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G5" s="21"/>
     </row>
@@ -1455,25 +1488,25 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1577,14 +1610,14 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
+        <v>42</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G19" s="12">
         <f>SUM(G8:G18)</f>
@@ -1595,7 +1628,7 @@
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -1604,15 +1637,15 @@
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="10"/>
       <c r="E21" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
@@ -1633,10 +1666,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,20 +1677,22 @@
     <col min="1" max="1" width="17.7109375" style="2" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="6.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1668,40 +1703,46 @@
         <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="M2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -1710,14 +1751,16 @@
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="33"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O3" s="32"/>
+      <c r="P3" s="33"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -1726,14 +1769,16 @@
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="8"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="30"/>
       <c r="N4" s="30"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O4" s="8"/>
+      <c r="P4" s="30"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -1742,14 +1787,16 @@
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="8"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="30"/>
       <c r="N5" s="30"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O5" s="8"/>
+      <c r="P5" s="30"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -1758,14 +1805,16 @@
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="8"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="30"/>
       <c r="N6" s="30"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="8"/>
+      <c r="P6" s="30"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -1780,6 +1829,8 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1790,27 +1841,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>381000</xdr:rowOff>
+                <xdr:rowOff>400050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper4"/>
+        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1840,27 +1891,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId8" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="1028" r:id="rId8" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>323850</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>400050</xdr:rowOff>
+                <xdr:rowOff>381000</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId8" name="_ActiveXWrapper1"/>
+        <control shapeId="1028" r:id="rId8" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1872,33 +1923,38 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A3:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
+      <c r="A3" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
       <c r="D3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="45"/>
+        <v>113</v>
+      </c>
+      <c r="E3" s="36"/>
       <c r="F3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="45"/>
+        <v>114</v>
+      </c>
+      <c r="G3" s="36"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1963,82 +2019,81 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H64"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2055,62 +2110,65 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -2124,16 +2182,16 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -2147,16 +2205,16 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -2170,16 +2228,16 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -2193,16 +2251,16 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -2210,19 +2268,22 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -2233,1029 +2294,1085 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>1900</v>
+      </c>
+      <c r="D37">
+        <v>900</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>49</v>
+      </c>
+      <c r="J63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>57</v>
+      </c>
+      <c r="J64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36">
-        <v>1900</v>
-      </c>
-      <c r="D36">
-        <v>900</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s">
-        <v>54</v>
-      </c>
-      <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>106</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="B65" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
         <v>109</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
         <v>110</v>
-      </c>
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" t="s">
-        <v>10</v>
-      </c>
-      <c r="H61" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" t="s">
-        <v>54</v>
-      </c>
-      <c r="H62" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>113</v>
-      </c>
-      <c r="C64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" t="s">
-        <v>114</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/BedsPlan/BedsPlan.xlsx
+++ b/BedsPlan/BedsPlan.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="5625"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="5625" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ResultTemplate" sheetId="3" r:id="rId1"/>
+    <sheet name="ResultTemplate" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="Plan" sheetId="1" r:id="rId2"/>
     <sheet name="PlanToPrint" sheetId="5" r:id="rId3"/>
     <sheet name="Result" sheetId="4" r:id="rId4"/>
-    <sheet name="Beds" sheetId="2" r:id="rId5"/>
+    <sheet name="Beds" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
@@ -427,6 +427,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd\.mm\.yy;@"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -708,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -762,18 +765,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -803,6 +800,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -825,14 +839,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F0C583D81DEED142B9198CA1311A549F9BB31"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4A5B185774D4C644D5B49C69418967FF8CC444"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1111"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4260"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1058"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -859,14 +873,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4A5B185774D4C644D5B49C69418967FF8CC444"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F0C583D81DEED142B9198CA1311A549F9BB31"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4260"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1058"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1111"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1401,7 +1415,7 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1430,19 +1444,19 @@
       <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="41"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="12"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -1469,8 +1483,8 @@
       <c r="B5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="20"/>
       <c r="F5" s="18" t="s">
         <v>111</v>
@@ -1612,10 +1626,10 @@
       <c r="A19" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="11" t="s">
         <v>40</v>
       </c>
@@ -1668,8 +1682,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,14 +1698,18 @@
     <col min="9" max="9" width="8.85546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="14" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="50" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="50" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="50" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" style="2" customWidth="1"/>
     <col min="16" max="16" width="8" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+    </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>15</v>
@@ -1726,13 +1744,13 @@
       <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="46" t="s">
         <v>125</v>
       </c>
       <c r="O2" s="5" t="s">
@@ -1743,22 +1761,22 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="33"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -1772,9 +1790,9 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
       <c r="O4" s="8"/>
       <c r="P4" s="30"/>
     </row>
@@ -1790,9 +1808,9 @@
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
       <c r="O5" s="8"/>
       <c r="P5" s="30"/>
     </row>
@@ -1808,9 +1826,9 @@
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
       <c r="O6" s="8"/>
       <c r="P6" s="30"/>
     </row>
@@ -1826,9 +1844,9 @@
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
     </row>
@@ -1841,27 +1859,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>323850</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>400050</xdr:rowOff>
+                <xdr:rowOff>381000</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1891,27 +1909,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId8" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="1025" r:id="rId8" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>323850</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>381000</xdr:rowOff>
+                <xdr:rowOff>400050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId8" name="_ActiveXWrapper4"/>
+        <control shapeId="1025" r:id="rId8" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1921,10 +1939,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист5"/>
-  <dimension ref="A3:G3"/>
+  <dimension ref="A3:O409"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="L1" sqref="L1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,27 +1952,2057 @@
     <col min="9" max="9" width="9.42578125" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="12" max="12" width="11" style="51" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="51" customWidth="1"/>
+    <col min="14" max="14" width="13" style="51" customWidth="1"/>
     <col min="15" max="15" width="11.85546875" customWidth="1"/>
     <col min="16" max="16" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
       <c r="D3" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="36"/>
+      <c r="E3" s="34"/>
       <c r="F3" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="36"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="44"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="44"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="44"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="44"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="44"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="44"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="44"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="44"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="44"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="44"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="44"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="44"/>
+    </row>
+    <row r="17" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="44"/>
+    </row>
+    <row r="18" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="44"/>
+    </row>
+    <row r="19" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="44"/>
+    </row>
+    <row r="20" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="44"/>
+    </row>
+    <row r="21" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="44"/>
+    </row>
+    <row r="22" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="44"/>
+    </row>
+    <row r="23" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="44"/>
+    </row>
+    <row r="24" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="44"/>
+    </row>
+    <row r="25" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="44"/>
+    </row>
+    <row r="26" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="44"/>
+    </row>
+    <row r="27" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="44"/>
+    </row>
+    <row r="28" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="44"/>
+    </row>
+    <row r="29" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="44"/>
+    </row>
+    <row r="30" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="44"/>
+    </row>
+    <row r="31" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="44"/>
+    </row>
+    <row r="32" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="44"/>
+    </row>
+    <row r="33" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="44"/>
+    </row>
+    <row r="34" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="44"/>
+    </row>
+    <row r="35" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="44"/>
+    </row>
+    <row r="36" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="44"/>
+    </row>
+    <row r="37" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="44"/>
+    </row>
+    <row r="38" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="44"/>
+    </row>
+    <row r="39" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="44"/>
+    </row>
+    <row r="40" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="44"/>
+    </row>
+    <row r="41" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="44"/>
+    </row>
+    <row r="42" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="44"/>
+    </row>
+    <row r="43" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="44"/>
+    </row>
+    <row r="44" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="44"/>
+    </row>
+    <row r="45" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="44"/>
+    </row>
+    <row r="46" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="44"/>
+    </row>
+    <row r="47" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="44"/>
+    </row>
+    <row r="48" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="44"/>
+    </row>
+    <row r="49" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="44"/>
+    </row>
+    <row r="50" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="44"/>
+    </row>
+    <row r="51" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="44"/>
+    </row>
+    <row r="52" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="44"/>
+    </row>
+    <row r="53" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="44"/>
+    </row>
+    <row r="54" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="44"/>
+    </row>
+    <row r="55" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="44"/>
+    </row>
+    <row r="56" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="44"/>
+    </row>
+    <row r="57" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="44"/>
+    </row>
+    <row r="58" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="44"/>
+    </row>
+    <row r="59" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="44"/>
+    </row>
+    <row r="60" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="44"/>
+    </row>
+    <row r="61" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="44"/>
+    </row>
+    <row r="62" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="44"/>
+    </row>
+    <row r="63" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="44"/>
+    </row>
+    <row r="64" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="44"/>
+    </row>
+    <row r="65" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="44"/>
+    </row>
+    <row r="66" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M66" s="52"/>
+      <c r="N66" s="52"/>
+      <c r="O66" s="44"/>
+    </row>
+    <row r="67" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M67" s="52"/>
+      <c r="N67" s="52"/>
+      <c r="O67" s="44"/>
+    </row>
+    <row r="68" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M68" s="52"/>
+      <c r="N68" s="52"/>
+      <c r="O68" s="44"/>
+    </row>
+    <row r="69" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M69" s="52"/>
+      <c r="N69" s="52"/>
+      <c r="O69" s="44"/>
+    </row>
+    <row r="70" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M70" s="52"/>
+      <c r="N70" s="52"/>
+      <c r="O70" s="44"/>
+    </row>
+    <row r="71" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M71" s="52"/>
+      <c r="N71" s="52"/>
+      <c r="O71" s="44"/>
+    </row>
+    <row r="72" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M72" s="52"/>
+      <c r="N72" s="52"/>
+      <c r="O72" s="44"/>
+    </row>
+    <row r="73" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M73" s="52"/>
+      <c r="N73" s="52"/>
+      <c r="O73" s="44"/>
+    </row>
+    <row r="74" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M74" s="52"/>
+      <c r="N74" s="52"/>
+      <c r="O74" s="44"/>
+    </row>
+    <row r="75" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M75" s="52"/>
+      <c r="N75" s="52"/>
+      <c r="O75" s="44"/>
+    </row>
+    <row r="76" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M76" s="52"/>
+      <c r="N76" s="52"/>
+      <c r="O76" s="44"/>
+    </row>
+    <row r="77" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M77" s="52"/>
+      <c r="N77" s="52"/>
+      <c r="O77" s="44"/>
+    </row>
+    <row r="78" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M78" s="52"/>
+      <c r="N78" s="52"/>
+      <c r="O78" s="44"/>
+    </row>
+    <row r="79" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M79" s="52"/>
+      <c r="N79" s="52"/>
+      <c r="O79" s="44"/>
+    </row>
+    <row r="80" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M80" s="52"/>
+      <c r="N80" s="52"/>
+      <c r="O80" s="44"/>
+    </row>
+    <row r="81" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M81" s="52"/>
+      <c r="N81" s="52"/>
+      <c r="O81" s="44"/>
+    </row>
+    <row r="82" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M82" s="52"/>
+      <c r="N82" s="52"/>
+      <c r="O82" s="44"/>
+    </row>
+    <row r="83" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M83" s="52"/>
+      <c r="N83" s="52"/>
+      <c r="O83" s="44"/>
+    </row>
+    <row r="84" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M84" s="52"/>
+      <c r="N84" s="52"/>
+      <c r="O84" s="44"/>
+    </row>
+    <row r="85" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M85" s="52"/>
+      <c r="N85" s="52"/>
+      <c r="O85" s="44"/>
+    </row>
+    <row r="86" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M86" s="52"/>
+      <c r="N86" s="52"/>
+      <c r="O86" s="44"/>
+    </row>
+    <row r="87" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M87" s="52"/>
+      <c r="N87" s="52"/>
+      <c r="O87" s="44"/>
+    </row>
+    <row r="88" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M88" s="52"/>
+      <c r="N88" s="52"/>
+      <c r="O88" s="44"/>
+    </row>
+    <row r="89" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M89" s="52"/>
+      <c r="N89" s="52"/>
+      <c r="O89" s="44"/>
+    </row>
+    <row r="90" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M90" s="52"/>
+      <c r="N90" s="52"/>
+      <c r="O90" s="44"/>
+    </row>
+    <row r="91" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M91" s="52"/>
+      <c r="N91" s="52"/>
+      <c r="O91" s="44"/>
+    </row>
+    <row r="92" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M92" s="52"/>
+      <c r="N92" s="52"/>
+      <c r="O92" s="44"/>
+    </row>
+    <row r="93" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M93" s="52"/>
+      <c r="N93" s="52"/>
+      <c r="O93" s="44"/>
+    </row>
+    <row r="94" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M94" s="52"/>
+      <c r="N94" s="52"/>
+      <c r="O94" s="44"/>
+    </row>
+    <row r="95" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M95" s="52"/>
+      <c r="N95" s="52"/>
+      <c r="O95" s="44"/>
+    </row>
+    <row r="96" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M96" s="52"/>
+      <c r="N96" s="52"/>
+      <c r="O96" s="44"/>
+    </row>
+    <row r="97" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M97" s="52"/>
+      <c r="N97" s="52"/>
+      <c r="O97" s="44"/>
+    </row>
+    <row r="98" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M98" s="52"/>
+      <c r="N98" s="52"/>
+      <c r="O98" s="44"/>
+    </row>
+    <row r="99" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M99" s="52"/>
+      <c r="N99" s="52"/>
+      <c r="O99" s="44"/>
+    </row>
+    <row r="100" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M100" s="52"/>
+      <c r="N100" s="52"/>
+      <c r="O100" s="44"/>
+    </row>
+    <row r="101" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M101" s="52"/>
+      <c r="N101" s="52"/>
+      <c r="O101" s="44"/>
+    </row>
+    <row r="102" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M102" s="52"/>
+      <c r="N102" s="52"/>
+      <c r="O102" s="44"/>
+    </row>
+    <row r="103" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M103" s="52"/>
+      <c r="N103" s="52"/>
+      <c r="O103" s="44"/>
+    </row>
+    <row r="104" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M104" s="52"/>
+      <c r="N104" s="52"/>
+      <c r="O104" s="44"/>
+    </row>
+    <row r="105" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M105" s="52"/>
+      <c r="N105" s="52"/>
+      <c r="O105" s="44"/>
+    </row>
+    <row r="106" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M106" s="52"/>
+      <c r="N106" s="52"/>
+      <c r="O106" s="44"/>
+    </row>
+    <row r="107" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M107" s="52"/>
+      <c r="N107" s="52"/>
+      <c r="O107" s="44"/>
+    </row>
+    <row r="108" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M108" s="52"/>
+      <c r="N108" s="52"/>
+      <c r="O108" s="44"/>
+    </row>
+    <row r="109" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M109" s="52"/>
+      <c r="N109" s="52"/>
+      <c r="O109" s="44"/>
+    </row>
+    <row r="110" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M110" s="52"/>
+      <c r="N110" s="52"/>
+      <c r="O110" s="44"/>
+    </row>
+    <row r="111" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M111" s="52"/>
+      <c r="N111" s="52"/>
+      <c r="O111" s="44"/>
+    </row>
+    <row r="112" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M112" s="52"/>
+      <c r="N112" s="52"/>
+      <c r="O112" s="44"/>
+    </row>
+    <row r="113" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M113" s="52"/>
+      <c r="N113" s="52"/>
+      <c r="O113" s="44"/>
+    </row>
+    <row r="114" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M114" s="52"/>
+      <c r="N114" s="52"/>
+      <c r="O114" s="44"/>
+    </row>
+    <row r="115" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M115" s="52"/>
+      <c r="N115" s="52"/>
+      <c r="O115" s="44"/>
+    </row>
+    <row r="116" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M116" s="52"/>
+      <c r="N116" s="52"/>
+      <c r="O116" s="44"/>
+    </row>
+    <row r="117" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M117" s="52"/>
+      <c r="N117" s="52"/>
+      <c r="O117" s="44"/>
+    </row>
+    <row r="118" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M118" s="52"/>
+      <c r="N118" s="52"/>
+      <c r="O118" s="44"/>
+    </row>
+    <row r="119" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M119" s="52"/>
+      <c r="N119" s="52"/>
+      <c r="O119" s="44"/>
+    </row>
+    <row r="120" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M120" s="52"/>
+      <c r="N120" s="52"/>
+      <c r="O120" s="44"/>
+    </row>
+    <row r="121" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M121" s="52"/>
+      <c r="N121" s="52"/>
+      <c r="O121" s="44"/>
+    </row>
+    <row r="122" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M122" s="52"/>
+      <c r="N122" s="52"/>
+      <c r="O122" s="44"/>
+    </row>
+    <row r="123" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M123" s="52"/>
+      <c r="N123" s="52"/>
+      <c r="O123" s="44"/>
+    </row>
+    <row r="124" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M124" s="52"/>
+      <c r="N124" s="52"/>
+      <c r="O124" s="44"/>
+    </row>
+    <row r="125" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M125" s="52"/>
+      <c r="N125" s="52"/>
+      <c r="O125" s="44"/>
+    </row>
+    <row r="126" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M126" s="52"/>
+      <c r="N126" s="52"/>
+      <c r="O126" s="44"/>
+    </row>
+    <row r="127" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M127" s="52"/>
+      <c r="N127" s="52"/>
+      <c r="O127" s="44"/>
+    </row>
+    <row r="128" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M128" s="52"/>
+      <c r="N128" s="52"/>
+      <c r="O128" s="44"/>
+    </row>
+    <row r="129" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M129" s="52"/>
+      <c r="N129" s="52"/>
+      <c r="O129" s="44"/>
+    </row>
+    <row r="130" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M130" s="52"/>
+      <c r="N130" s="52"/>
+      <c r="O130" s="44"/>
+    </row>
+    <row r="131" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M131" s="52"/>
+      <c r="N131" s="52"/>
+      <c r="O131" s="44"/>
+    </row>
+    <row r="132" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M132" s="52"/>
+      <c r="N132" s="52"/>
+      <c r="O132" s="44"/>
+    </row>
+    <row r="133" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M133" s="52"/>
+      <c r="N133" s="52"/>
+      <c r="O133" s="44"/>
+    </row>
+    <row r="134" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M134" s="52"/>
+      <c r="N134" s="52"/>
+      <c r="O134" s="44"/>
+    </row>
+    <row r="135" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M135" s="52"/>
+      <c r="N135" s="52"/>
+      <c r="O135" s="44"/>
+    </row>
+    <row r="136" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M136" s="52"/>
+      <c r="N136" s="52"/>
+      <c r="O136" s="44"/>
+    </row>
+    <row r="137" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M137" s="52"/>
+      <c r="N137" s="52"/>
+      <c r="O137" s="44"/>
+    </row>
+    <row r="138" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M138" s="52"/>
+      <c r="N138" s="52"/>
+      <c r="O138" s="44"/>
+    </row>
+    <row r="139" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M139" s="52"/>
+      <c r="N139" s="52"/>
+      <c r="O139" s="44"/>
+    </row>
+    <row r="140" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M140" s="52"/>
+      <c r="N140" s="52"/>
+      <c r="O140" s="44"/>
+    </row>
+    <row r="141" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M141" s="52"/>
+      <c r="N141" s="52"/>
+      <c r="O141" s="44"/>
+    </row>
+    <row r="142" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M142" s="52"/>
+      <c r="N142" s="52"/>
+      <c r="O142" s="44"/>
+    </row>
+    <row r="143" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M143" s="52"/>
+      <c r="N143" s="52"/>
+      <c r="O143" s="44"/>
+    </row>
+    <row r="144" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M144" s="52"/>
+      <c r="N144" s="52"/>
+      <c r="O144" s="44"/>
+    </row>
+    <row r="145" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M145" s="52"/>
+      <c r="N145" s="52"/>
+      <c r="O145" s="44"/>
+    </row>
+    <row r="146" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M146" s="52"/>
+      <c r="N146" s="52"/>
+      <c r="O146" s="44"/>
+    </row>
+    <row r="147" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M147" s="52"/>
+      <c r="N147" s="52"/>
+      <c r="O147" s="44"/>
+    </row>
+    <row r="148" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M148" s="52"/>
+      <c r="N148" s="52"/>
+      <c r="O148" s="44"/>
+    </row>
+    <row r="149" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M149" s="52"/>
+      <c r="N149" s="52"/>
+      <c r="O149" s="44"/>
+    </row>
+    <row r="150" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M150" s="52"/>
+      <c r="N150" s="52"/>
+      <c r="O150" s="44"/>
+    </row>
+    <row r="151" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M151" s="52"/>
+      <c r="N151" s="52"/>
+      <c r="O151" s="44"/>
+    </row>
+    <row r="152" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M152" s="52"/>
+      <c r="N152" s="52"/>
+      <c r="O152" s="44"/>
+    </row>
+    <row r="153" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M153" s="52"/>
+      <c r="N153" s="52"/>
+      <c r="O153" s="44"/>
+    </row>
+    <row r="154" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M154" s="52"/>
+      <c r="N154" s="52"/>
+      <c r="O154" s="44"/>
+    </row>
+    <row r="155" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M155" s="52"/>
+      <c r="N155" s="52"/>
+      <c r="O155" s="44"/>
+    </row>
+    <row r="156" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M156" s="52"/>
+      <c r="N156" s="52"/>
+      <c r="O156" s="44"/>
+    </row>
+    <row r="157" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M157" s="52"/>
+      <c r="N157" s="52"/>
+      <c r="O157" s="44"/>
+    </row>
+    <row r="158" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M158" s="52"/>
+      <c r="N158" s="52"/>
+      <c r="O158" s="44"/>
+    </row>
+    <row r="159" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M159" s="52"/>
+      <c r="N159" s="52"/>
+      <c r="O159" s="44"/>
+    </row>
+    <row r="160" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M160" s="52"/>
+      <c r="N160" s="52"/>
+      <c r="O160" s="44"/>
+    </row>
+    <row r="161" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M161" s="52"/>
+      <c r="N161" s="52"/>
+      <c r="O161" s="44"/>
+    </row>
+    <row r="162" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M162" s="52"/>
+      <c r="N162" s="52"/>
+      <c r="O162" s="44"/>
+    </row>
+    <row r="163" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M163" s="52"/>
+      <c r="N163" s="52"/>
+      <c r="O163" s="44"/>
+    </row>
+    <row r="164" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M164" s="52"/>
+      <c r="N164" s="52"/>
+      <c r="O164" s="44"/>
+    </row>
+    <row r="165" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M165" s="52"/>
+      <c r="N165" s="52"/>
+      <c r="O165" s="44"/>
+    </row>
+    <row r="166" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M166" s="52"/>
+      <c r="N166" s="52"/>
+      <c r="O166" s="44"/>
+    </row>
+    <row r="167" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M167" s="52"/>
+      <c r="N167" s="52"/>
+      <c r="O167" s="44"/>
+    </row>
+    <row r="168" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M168" s="52"/>
+      <c r="N168" s="52"/>
+      <c r="O168" s="44"/>
+    </row>
+    <row r="169" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M169" s="52"/>
+      <c r="N169" s="52"/>
+      <c r="O169" s="44"/>
+    </row>
+    <row r="170" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M170" s="52"/>
+      <c r="N170" s="52"/>
+      <c r="O170" s="44"/>
+    </row>
+    <row r="171" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M171" s="52"/>
+      <c r="N171" s="52"/>
+      <c r="O171" s="44"/>
+    </row>
+    <row r="172" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M172" s="52"/>
+      <c r="N172" s="52"/>
+      <c r="O172" s="44"/>
+    </row>
+    <row r="173" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M173" s="52"/>
+      <c r="N173" s="52"/>
+      <c r="O173" s="44"/>
+    </row>
+    <row r="174" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M174" s="52"/>
+      <c r="N174" s="52"/>
+      <c r="O174" s="44"/>
+    </row>
+    <row r="175" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M175" s="52"/>
+      <c r="N175" s="52"/>
+      <c r="O175" s="44"/>
+    </row>
+    <row r="176" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M176" s="52"/>
+      <c r="N176" s="52"/>
+      <c r="O176" s="44"/>
+    </row>
+    <row r="177" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M177" s="52"/>
+      <c r="N177" s="52"/>
+      <c r="O177" s="44"/>
+    </row>
+    <row r="178" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M178" s="52"/>
+      <c r="N178" s="52"/>
+      <c r="O178" s="44"/>
+    </row>
+    <row r="179" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M179" s="52"/>
+      <c r="N179" s="52"/>
+      <c r="O179" s="44"/>
+    </row>
+    <row r="180" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M180" s="52"/>
+      <c r="N180" s="52"/>
+      <c r="O180" s="44"/>
+    </row>
+    <row r="181" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M181" s="52"/>
+      <c r="N181" s="52"/>
+      <c r="O181" s="44"/>
+    </row>
+    <row r="182" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M182" s="52"/>
+      <c r="N182" s="52"/>
+      <c r="O182" s="44"/>
+    </row>
+    <row r="183" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M183" s="52"/>
+      <c r="N183" s="52"/>
+      <c r="O183" s="44"/>
+    </row>
+    <row r="184" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M184" s="52"/>
+      <c r="N184" s="52"/>
+      <c r="O184" s="44"/>
+    </row>
+    <row r="185" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M185" s="52"/>
+      <c r="N185" s="52"/>
+      <c r="O185" s="44"/>
+    </row>
+    <row r="186" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M186" s="52"/>
+      <c r="N186" s="52"/>
+      <c r="O186" s="44"/>
+    </row>
+    <row r="187" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M187" s="52"/>
+      <c r="N187" s="52"/>
+      <c r="O187" s="44"/>
+    </row>
+    <row r="188" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M188" s="52"/>
+      <c r="N188" s="52"/>
+      <c r="O188" s="44"/>
+    </row>
+    <row r="189" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M189" s="52"/>
+      <c r="N189" s="52"/>
+      <c r="O189" s="44"/>
+    </row>
+    <row r="190" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M190" s="52"/>
+      <c r="N190" s="52"/>
+      <c r="O190" s="44"/>
+    </row>
+    <row r="191" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M191" s="52"/>
+      <c r="N191" s="52"/>
+      <c r="O191" s="44"/>
+    </row>
+    <row r="192" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M192" s="52"/>
+      <c r="N192" s="52"/>
+      <c r="O192" s="44"/>
+    </row>
+    <row r="193" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M193" s="52"/>
+      <c r="N193" s="52"/>
+      <c r="O193" s="44"/>
+    </row>
+    <row r="194" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M194" s="52"/>
+      <c r="N194" s="52"/>
+      <c r="O194" s="44"/>
+    </row>
+    <row r="195" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M195" s="52"/>
+      <c r="N195" s="52"/>
+      <c r="O195" s="44"/>
+    </row>
+    <row r="196" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M196" s="52"/>
+      <c r="N196" s="52"/>
+      <c r="O196" s="44"/>
+    </row>
+    <row r="197" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M197" s="52"/>
+      <c r="N197" s="52"/>
+      <c r="O197" s="44"/>
+    </row>
+    <row r="198" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M198" s="52"/>
+      <c r="N198" s="52"/>
+      <c r="O198" s="44"/>
+    </row>
+    <row r="199" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M199" s="52"/>
+      <c r="N199" s="52"/>
+      <c r="O199" s="44"/>
+    </row>
+    <row r="200" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M200" s="52"/>
+      <c r="N200" s="52"/>
+      <c r="O200" s="44"/>
+    </row>
+    <row r="201" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M201" s="52"/>
+      <c r="N201" s="52"/>
+      <c r="O201" s="44"/>
+    </row>
+    <row r="202" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M202" s="52"/>
+      <c r="N202" s="52"/>
+      <c r="O202" s="44"/>
+    </row>
+    <row r="203" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M203" s="52"/>
+      <c r="N203" s="52"/>
+      <c r="O203" s="44"/>
+    </row>
+    <row r="204" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M204" s="52"/>
+      <c r="N204" s="52"/>
+      <c r="O204" s="44"/>
+    </row>
+    <row r="205" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M205" s="52"/>
+      <c r="N205" s="52"/>
+      <c r="O205" s="44"/>
+    </row>
+    <row r="206" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M206" s="52"/>
+      <c r="N206" s="52"/>
+      <c r="O206" s="44"/>
+    </row>
+    <row r="207" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M207" s="52"/>
+      <c r="N207" s="52"/>
+      <c r="O207" s="44"/>
+    </row>
+    <row r="208" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M208" s="52"/>
+      <c r="N208" s="52"/>
+      <c r="O208" s="44"/>
+    </row>
+    <row r="209" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M209" s="52"/>
+      <c r="N209" s="52"/>
+      <c r="O209" s="44"/>
+    </row>
+    <row r="210" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M210" s="52"/>
+      <c r="N210" s="52"/>
+      <c r="O210" s="44"/>
+    </row>
+    <row r="211" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M211" s="52"/>
+      <c r="N211" s="52"/>
+      <c r="O211" s="44"/>
+    </row>
+    <row r="212" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M212" s="52"/>
+      <c r="N212" s="52"/>
+      <c r="O212" s="44"/>
+    </row>
+    <row r="213" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M213" s="52"/>
+      <c r="N213" s="52"/>
+      <c r="O213" s="44"/>
+    </row>
+    <row r="214" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M214" s="52"/>
+      <c r="N214" s="52"/>
+      <c r="O214" s="44"/>
+    </row>
+    <row r="215" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M215" s="52"/>
+      <c r="N215" s="52"/>
+      <c r="O215" s="44"/>
+    </row>
+    <row r="216" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M216" s="52"/>
+      <c r="N216" s="52"/>
+      <c r="O216" s="44"/>
+    </row>
+    <row r="217" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M217" s="52"/>
+      <c r="N217" s="52"/>
+      <c r="O217" s="44"/>
+    </row>
+    <row r="218" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M218" s="52"/>
+      <c r="N218" s="52"/>
+      <c r="O218" s="44"/>
+    </row>
+    <row r="219" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M219" s="52"/>
+      <c r="N219" s="52"/>
+      <c r="O219" s="44"/>
+    </row>
+    <row r="220" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M220" s="52"/>
+      <c r="N220" s="52"/>
+      <c r="O220" s="44"/>
+    </row>
+    <row r="221" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M221" s="52"/>
+      <c r="N221" s="52"/>
+      <c r="O221" s="44"/>
+    </row>
+    <row r="222" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M222" s="52"/>
+      <c r="N222" s="52"/>
+      <c r="O222" s="44"/>
+    </row>
+    <row r="223" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M223" s="52"/>
+      <c r="N223" s="52"/>
+      <c r="O223" s="44"/>
+    </row>
+    <row r="224" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M224" s="52"/>
+      <c r="N224" s="52"/>
+      <c r="O224" s="44"/>
+    </row>
+    <row r="225" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M225" s="52"/>
+      <c r="N225" s="52"/>
+      <c r="O225" s="44"/>
+    </row>
+    <row r="226" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M226" s="52"/>
+      <c r="N226" s="52"/>
+      <c r="O226" s="44"/>
+    </row>
+    <row r="227" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M227" s="52"/>
+      <c r="N227" s="52"/>
+      <c r="O227" s="44"/>
+    </row>
+    <row r="228" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M228" s="52"/>
+      <c r="N228" s="52"/>
+      <c r="O228" s="44"/>
+    </row>
+    <row r="229" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M229" s="52"/>
+      <c r="N229" s="52"/>
+      <c r="O229" s="44"/>
+    </row>
+    <row r="230" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M230" s="52"/>
+      <c r="N230" s="52"/>
+      <c r="O230" s="44"/>
+    </row>
+    <row r="231" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M231" s="52"/>
+      <c r="N231" s="52"/>
+      <c r="O231" s="44"/>
+    </row>
+    <row r="232" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M232" s="52"/>
+      <c r="N232" s="52"/>
+      <c r="O232" s="44"/>
+    </row>
+    <row r="233" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M233" s="52"/>
+      <c r="N233" s="52"/>
+      <c r="O233" s="44"/>
+    </row>
+    <row r="234" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M234" s="52"/>
+      <c r="N234" s="52"/>
+      <c r="O234" s="44"/>
+    </row>
+    <row r="235" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M235" s="52"/>
+      <c r="N235" s="52"/>
+      <c r="O235" s="44"/>
+    </row>
+    <row r="236" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M236" s="52"/>
+      <c r="N236" s="52"/>
+      <c r="O236" s="44"/>
+    </row>
+    <row r="237" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M237" s="52"/>
+      <c r="N237" s="52"/>
+      <c r="O237" s="44"/>
+    </row>
+    <row r="238" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M238" s="52"/>
+      <c r="N238" s="52"/>
+      <c r="O238" s="44"/>
+    </row>
+    <row r="239" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M239" s="52"/>
+      <c r="N239" s="52"/>
+      <c r="O239" s="44"/>
+    </row>
+    <row r="240" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M240" s="52"/>
+      <c r="N240" s="52"/>
+      <c r="O240" s="44"/>
+    </row>
+    <row r="241" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M241" s="52"/>
+      <c r="N241" s="52"/>
+      <c r="O241" s="44"/>
+    </row>
+    <row r="242" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M242" s="52"/>
+      <c r="N242" s="52"/>
+      <c r="O242" s="44"/>
+    </row>
+    <row r="243" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M243" s="52"/>
+      <c r="N243" s="52"/>
+      <c r="O243" s="44"/>
+    </row>
+    <row r="244" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M244" s="52"/>
+      <c r="N244" s="52"/>
+      <c r="O244" s="44"/>
+    </row>
+    <row r="245" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M245" s="52"/>
+      <c r="N245" s="52"/>
+      <c r="O245" s="44"/>
+    </row>
+    <row r="246" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M246" s="52"/>
+      <c r="N246" s="52"/>
+      <c r="O246" s="44"/>
+    </row>
+    <row r="247" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M247" s="52"/>
+      <c r="N247" s="52"/>
+      <c r="O247" s="44"/>
+    </row>
+    <row r="248" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M248" s="52"/>
+      <c r="N248" s="52"/>
+      <c r="O248" s="44"/>
+    </row>
+    <row r="249" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M249" s="52"/>
+      <c r="N249" s="52"/>
+      <c r="O249" s="44"/>
+    </row>
+    <row r="250" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M250" s="52"/>
+      <c r="N250" s="52"/>
+      <c r="O250" s="44"/>
+    </row>
+    <row r="251" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M251" s="52"/>
+      <c r="N251" s="52"/>
+      <c r="O251" s="44"/>
+    </row>
+    <row r="252" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M252" s="52"/>
+      <c r="N252" s="52"/>
+      <c r="O252" s="44"/>
+    </row>
+    <row r="253" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M253" s="52"/>
+      <c r="N253" s="52"/>
+      <c r="O253" s="44"/>
+    </row>
+    <row r="254" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M254" s="52"/>
+      <c r="N254" s="52"/>
+      <c r="O254" s="44"/>
+    </row>
+    <row r="255" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M255" s="52"/>
+      <c r="N255" s="52"/>
+      <c r="O255" s="44"/>
+    </row>
+    <row r="256" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M256" s="52"/>
+      <c r="N256" s="52"/>
+      <c r="O256" s="44"/>
+    </row>
+    <row r="257" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M257" s="52"/>
+      <c r="N257" s="52"/>
+      <c r="O257" s="44"/>
+    </row>
+    <row r="258" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M258" s="52"/>
+      <c r="N258" s="52"/>
+      <c r="O258" s="44"/>
+    </row>
+    <row r="259" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M259" s="52"/>
+      <c r="N259" s="52"/>
+      <c r="O259" s="44"/>
+    </row>
+    <row r="260" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M260" s="52"/>
+      <c r="N260" s="52"/>
+      <c r="O260" s="44"/>
+    </row>
+    <row r="261" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M261" s="52"/>
+      <c r="N261" s="52"/>
+      <c r="O261" s="44"/>
+    </row>
+    <row r="262" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M262" s="52"/>
+      <c r="N262" s="52"/>
+      <c r="O262" s="44"/>
+    </row>
+    <row r="263" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M263" s="52"/>
+      <c r="N263" s="52"/>
+      <c r="O263" s="44"/>
+    </row>
+    <row r="264" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M264" s="52"/>
+      <c r="N264" s="52"/>
+      <c r="O264" s="44"/>
+    </row>
+    <row r="265" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M265" s="52"/>
+      <c r="N265" s="52"/>
+      <c r="O265" s="44"/>
+    </row>
+    <row r="266" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M266" s="52"/>
+      <c r="N266" s="52"/>
+      <c r="O266" s="44"/>
+    </row>
+    <row r="267" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M267" s="52"/>
+      <c r="N267" s="52"/>
+      <c r="O267" s="44"/>
+    </row>
+    <row r="268" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M268" s="52"/>
+      <c r="N268" s="52"/>
+      <c r="O268" s="44"/>
+    </row>
+    <row r="269" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M269" s="52"/>
+      <c r="N269" s="52"/>
+      <c r="O269" s="44"/>
+    </row>
+    <row r="270" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M270" s="52"/>
+      <c r="N270" s="52"/>
+      <c r="O270" s="44"/>
+    </row>
+    <row r="271" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M271" s="52"/>
+      <c r="N271" s="52"/>
+      <c r="O271" s="44"/>
+    </row>
+    <row r="272" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M272" s="52"/>
+      <c r="N272" s="52"/>
+      <c r="O272" s="44"/>
+    </row>
+    <row r="273" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M273" s="52"/>
+      <c r="N273" s="52"/>
+      <c r="O273" s="44"/>
+    </row>
+    <row r="274" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M274" s="52"/>
+      <c r="N274" s="52"/>
+      <c r="O274" s="44"/>
+    </row>
+    <row r="275" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M275" s="52"/>
+      <c r="N275" s="52"/>
+      <c r="O275" s="44"/>
+    </row>
+    <row r="276" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M276" s="52"/>
+      <c r="N276" s="52"/>
+      <c r="O276" s="44"/>
+    </row>
+    <row r="277" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M277" s="52"/>
+      <c r="N277" s="52"/>
+      <c r="O277" s="44"/>
+    </row>
+    <row r="278" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M278" s="52"/>
+      <c r="N278" s="52"/>
+      <c r="O278" s="44"/>
+    </row>
+    <row r="279" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M279" s="52"/>
+      <c r="N279" s="52"/>
+      <c r="O279" s="44"/>
+    </row>
+    <row r="280" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M280" s="52"/>
+      <c r="N280" s="52"/>
+      <c r="O280" s="44"/>
+    </row>
+    <row r="281" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M281" s="52"/>
+      <c r="N281" s="52"/>
+      <c r="O281" s="44"/>
+    </row>
+    <row r="282" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M282" s="52"/>
+      <c r="N282" s="52"/>
+      <c r="O282" s="44"/>
+    </row>
+    <row r="283" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M283" s="52"/>
+      <c r="N283" s="52"/>
+      <c r="O283" s="44"/>
+    </row>
+    <row r="284" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M284" s="52"/>
+      <c r="N284" s="52"/>
+      <c r="O284" s="44"/>
+    </row>
+    <row r="285" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M285" s="52"/>
+      <c r="N285" s="52"/>
+      <c r="O285" s="44"/>
+    </row>
+    <row r="286" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M286" s="52"/>
+      <c r="N286" s="52"/>
+      <c r="O286" s="44"/>
+    </row>
+    <row r="287" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M287" s="52"/>
+      <c r="N287" s="52"/>
+      <c r="O287" s="44"/>
+    </row>
+    <row r="288" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M288" s="52"/>
+      <c r="N288" s="52"/>
+      <c r="O288" s="44"/>
+    </row>
+    <row r="289" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M289" s="52"/>
+      <c r="N289" s="52"/>
+      <c r="O289" s="44"/>
+    </row>
+    <row r="290" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M290" s="52"/>
+      <c r="N290" s="52"/>
+      <c r="O290" s="44"/>
+    </row>
+    <row r="291" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M291" s="52"/>
+      <c r="N291" s="52"/>
+      <c r="O291" s="44"/>
+    </row>
+    <row r="292" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M292" s="52"/>
+      <c r="N292" s="52"/>
+      <c r="O292" s="44"/>
+    </row>
+    <row r="293" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M293" s="52"/>
+      <c r="N293" s="52"/>
+      <c r="O293" s="44"/>
+    </row>
+    <row r="294" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M294" s="52"/>
+      <c r="N294" s="52"/>
+      <c r="O294" s="44"/>
+    </row>
+    <row r="295" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M295" s="52"/>
+      <c r="N295" s="52"/>
+      <c r="O295" s="44"/>
+    </row>
+    <row r="296" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M296" s="52"/>
+      <c r="N296" s="52"/>
+      <c r="O296" s="44"/>
+    </row>
+    <row r="297" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M297" s="52"/>
+      <c r="N297" s="52"/>
+      <c r="O297" s="44"/>
+    </row>
+    <row r="298" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M298" s="52"/>
+      <c r="N298" s="52"/>
+      <c r="O298" s="44"/>
+    </row>
+    <row r="299" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M299" s="52"/>
+      <c r="N299" s="52"/>
+      <c r="O299" s="44"/>
+    </row>
+    <row r="300" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M300" s="52"/>
+      <c r="N300" s="52"/>
+      <c r="O300" s="44"/>
+    </row>
+    <row r="301" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M301" s="52"/>
+      <c r="N301" s="52"/>
+      <c r="O301" s="44"/>
+    </row>
+    <row r="302" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M302" s="52"/>
+      <c r="N302" s="52"/>
+      <c r="O302" s="44"/>
+    </row>
+    <row r="303" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M303" s="52"/>
+      <c r="N303" s="52"/>
+      <c r="O303" s="44"/>
+    </row>
+    <row r="304" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M304" s="52"/>
+      <c r="N304" s="52"/>
+      <c r="O304" s="44"/>
+    </row>
+    <row r="305" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M305" s="52"/>
+      <c r="N305" s="52"/>
+      <c r="O305" s="44"/>
+    </row>
+    <row r="306" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M306" s="52"/>
+      <c r="N306" s="52"/>
+      <c r="O306" s="44"/>
+    </row>
+    <row r="307" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M307" s="52"/>
+      <c r="N307" s="52"/>
+      <c r="O307" s="44"/>
+    </row>
+    <row r="308" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M308" s="52"/>
+      <c r="N308" s="52"/>
+      <c r="O308" s="44"/>
+    </row>
+    <row r="309" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M309" s="52"/>
+      <c r="N309" s="52"/>
+      <c r="O309" s="44"/>
+    </row>
+    <row r="310" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M310" s="52"/>
+      <c r="N310" s="52"/>
+      <c r="O310" s="44"/>
+    </row>
+    <row r="311" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M311" s="52"/>
+      <c r="N311" s="52"/>
+      <c r="O311" s="44"/>
+    </row>
+    <row r="312" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M312" s="52"/>
+      <c r="N312" s="52"/>
+      <c r="O312" s="44"/>
+    </row>
+    <row r="313" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M313" s="52"/>
+      <c r="N313" s="52"/>
+      <c r="O313" s="44"/>
+    </row>
+    <row r="314" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M314" s="52"/>
+      <c r="N314" s="52"/>
+      <c r="O314" s="44"/>
+    </row>
+    <row r="315" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M315" s="52"/>
+      <c r="N315" s="52"/>
+      <c r="O315" s="44"/>
+    </row>
+    <row r="316" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M316" s="52"/>
+      <c r="N316" s="52"/>
+      <c r="O316" s="44"/>
+    </row>
+    <row r="317" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M317" s="52"/>
+      <c r="N317" s="52"/>
+      <c r="O317" s="44"/>
+    </row>
+    <row r="318" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M318" s="52"/>
+      <c r="N318" s="52"/>
+      <c r="O318" s="44"/>
+    </row>
+    <row r="319" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M319" s="52"/>
+      <c r="N319" s="52"/>
+      <c r="O319" s="44"/>
+    </row>
+    <row r="320" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M320" s="52"/>
+      <c r="N320" s="52"/>
+      <c r="O320" s="44"/>
+    </row>
+    <row r="321" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M321" s="52"/>
+      <c r="N321" s="52"/>
+      <c r="O321" s="44"/>
+    </row>
+    <row r="322" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M322" s="52"/>
+      <c r="N322" s="52"/>
+      <c r="O322" s="44"/>
+    </row>
+    <row r="323" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M323" s="52"/>
+      <c r="N323" s="52"/>
+      <c r="O323" s="44"/>
+    </row>
+    <row r="324" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M324" s="52"/>
+      <c r="N324" s="52"/>
+      <c r="O324" s="44"/>
+    </row>
+    <row r="325" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M325" s="52"/>
+      <c r="N325" s="52"/>
+      <c r="O325" s="44"/>
+    </row>
+    <row r="326" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M326" s="52"/>
+      <c r="N326" s="52"/>
+      <c r="O326" s="44"/>
+    </row>
+    <row r="327" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M327" s="52"/>
+      <c r="N327" s="52"/>
+      <c r="O327" s="44"/>
+    </row>
+    <row r="328" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M328" s="52"/>
+      <c r="N328" s="52"/>
+      <c r="O328" s="44"/>
+    </row>
+    <row r="329" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M329" s="52"/>
+      <c r="N329" s="52"/>
+      <c r="O329" s="44"/>
+    </row>
+    <row r="330" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M330" s="52"/>
+      <c r="N330" s="52"/>
+      <c r="O330" s="44"/>
+    </row>
+    <row r="331" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M331" s="52"/>
+      <c r="N331" s="52"/>
+      <c r="O331" s="44"/>
+    </row>
+    <row r="332" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M332" s="52"/>
+      <c r="N332" s="52"/>
+      <c r="O332" s="44"/>
+    </row>
+    <row r="333" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M333" s="52"/>
+      <c r="N333" s="52"/>
+      <c r="O333" s="44"/>
+    </row>
+    <row r="334" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M334" s="52"/>
+      <c r="N334" s="52"/>
+      <c r="O334" s="44"/>
+    </row>
+    <row r="335" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M335" s="52"/>
+      <c r="N335" s="52"/>
+      <c r="O335" s="44"/>
+    </row>
+    <row r="336" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M336" s="52"/>
+      <c r="N336" s="52"/>
+      <c r="O336" s="44"/>
+    </row>
+    <row r="337" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M337" s="52"/>
+      <c r="N337" s="52"/>
+      <c r="O337" s="44"/>
+    </row>
+    <row r="338" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M338" s="52"/>
+      <c r="N338" s="52"/>
+      <c r="O338" s="44"/>
+    </row>
+    <row r="339" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M339" s="52"/>
+      <c r="N339" s="52"/>
+      <c r="O339" s="44"/>
+    </row>
+    <row r="340" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M340" s="52"/>
+      <c r="N340" s="52"/>
+      <c r="O340" s="44"/>
+    </row>
+    <row r="341" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M341" s="52"/>
+      <c r="N341" s="52"/>
+      <c r="O341" s="44"/>
+    </row>
+    <row r="342" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M342" s="52"/>
+      <c r="N342" s="52"/>
+      <c r="O342" s="44"/>
+    </row>
+    <row r="343" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M343" s="52"/>
+      <c r="N343" s="52"/>
+      <c r="O343" s="44"/>
+    </row>
+    <row r="344" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M344" s="52"/>
+      <c r="N344" s="52"/>
+      <c r="O344" s="44"/>
+    </row>
+    <row r="345" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M345" s="52"/>
+      <c r="N345" s="52"/>
+      <c r="O345" s="44"/>
+    </row>
+    <row r="346" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M346" s="52"/>
+      <c r="N346" s="52"/>
+      <c r="O346" s="44"/>
+    </row>
+    <row r="347" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M347" s="52"/>
+      <c r="N347" s="52"/>
+      <c r="O347" s="44"/>
+    </row>
+    <row r="348" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M348" s="52"/>
+      <c r="N348" s="52"/>
+      <c r="O348" s="44"/>
+    </row>
+    <row r="349" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M349" s="52"/>
+      <c r="N349" s="52"/>
+      <c r="O349" s="44"/>
+    </row>
+    <row r="350" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M350" s="52"/>
+      <c r="N350" s="52"/>
+      <c r="O350" s="44"/>
+    </row>
+    <row r="351" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M351" s="52"/>
+      <c r="N351" s="52"/>
+      <c r="O351" s="44"/>
+    </row>
+    <row r="352" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M352" s="52"/>
+      <c r="N352" s="52"/>
+      <c r="O352" s="44"/>
+    </row>
+    <row r="353" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M353" s="52"/>
+      <c r="N353" s="52"/>
+      <c r="O353" s="44"/>
+    </row>
+    <row r="354" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M354" s="52"/>
+      <c r="N354" s="52"/>
+      <c r="O354" s="44"/>
+    </row>
+    <row r="355" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M355" s="52"/>
+      <c r="N355" s="52"/>
+      <c r="O355" s="44"/>
+    </row>
+    <row r="356" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M356" s="52"/>
+      <c r="N356" s="52"/>
+      <c r="O356" s="44"/>
+    </row>
+    <row r="357" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M357" s="52"/>
+      <c r="N357" s="52"/>
+      <c r="O357" s="44"/>
+    </row>
+    <row r="358" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M358" s="52"/>
+      <c r="N358" s="52"/>
+      <c r="O358" s="44"/>
+    </row>
+    <row r="359" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M359" s="52"/>
+      <c r="N359" s="52"/>
+      <c r="O359" s="44"/>
+    </row>
+    <row r="360" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M360" s="52"/>
+      <c r="N360" s="52"/>
+      <c r="O360" s="44"/>
+    </row>
+    <row r="361" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M361" s="52"/>
+      <c r="N361" s="52"/>
+      <c r="O361" s="44"/>
+    </row>
+    <row r="362" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M362" s="52"/>
+      <c r="N362" s="52"/>
+      <c r="O362" s="44"/>
+    </row>
+    <row r="363" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M363" s="52"/>
+      <c r="N363" s="52"/>
+      <c r="O363" s="44"/>
+    </row>
+    <row r="364" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M364" s="52"/>
+      <c r="N364" s="52"/>
+      <c r="O364" s="44"/>
+    </row>
+    <row r="365" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M365" s="52"/>
+      <c r="N365" s="52"/>
+      <c r="O365" s="44"/>
+    </row>
+    <row r="366" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M366" s="52"/>
+      <c r="N366" s="52"/>
+      <c r="O366" s="44"/>
+    </row>
+    <row r="367" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M367" s="52"/>
+      <c r="N367" s="52"/>
+      <c r="O367" s="44"/>
+    </row>
+    <row r="368" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M368" s="52"/>
+      <c r="N368" s="52"/>
+      <c r="O368" s="44"/>
+    </row>
+    <row r="369" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M369" s="52"/>
+      <c r="N369" s="52"/>
+      <c r="O369" s="44"/>
+    </row>
+    <row r="370" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M370" s="52"/>
+      <c r="N370" s="52"/>
+      <c r="O370" s="44"/>
+    </row>
+    <row r="371" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M371" s="52"/>
+      <c r="N371" s="52"/>
+      <c r="O371" s="44"/>
+    </row>
+    <row r="372" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M372" s="52"/>
+      <c r="N372" s="52"/>
+      <c r="O372" s="44"/>
+    </row>
+    <row r="373" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M373" s="52"/>
+      <c r="N373" s="52"/>
+      <c r="O373" s="44"/>
+    </row>
+    <row r="374" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M374" s="52"/>
+      <c r="N374" s="52"/>
+      <c r="O374" s="44"/>
+    </row>
+    <row r="375" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M375" s="52"/>
+      <c r="N375" s="52"/>
+      <c r="O375" s="44"/>
+    </row>
+    <row r="376" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M376" s="52"/>
+      <c r="N376" s="52"/>
+      <c r="O376" s="44"/>
+    </row>
+    <row r="377" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M377" s="52"/>
+      <c r="N377" s="52"/>
+      <c r="O377" s="44"/>
+    </row>
+    <row r="378" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M378" s="52"/>
+      <c r="N378" s="52"/>
+      <c r="O378" s="44"/>
+    </row>
+    <row r="379" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M379" s="52"/>
+      <c r="N379" s="52"/>
+      <c r="O379" s="44"/>
+    </row>
+    <row r="380" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M380" s="52"/>
+      <c r="N380" s="52"/>
+      <c r="O380" s="44"/>
+    </row>
+    <row r="381" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M381" s="52"/>
+      <c r="N381" s="52"/>
+      <c r="O381" s="44"/>
+    </row>
+    <row r="382" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M382" s="52"/>
+      <c r="N382" s="52"/>
+      <c r="O382" s="44"/>
+    </row>
+    <row r="383" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M383" s="52"/>
+      <c r="N383" s="52"/>
+      <c r="O383" s="44"/>
+    </row>
+    <row r="384" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M384" s="52"/>
+      <c r="N384" s="52"/>
+      <c r="O384" s="44"/>
+    </row>
+    <row r="385" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M385" s="52"/>
+      <c r="N385" s="52"/>
+      <c r="O385" s="44"/>
+    </row>
+    <row r="386" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M386" s="52"/>
+      <c r="N386" s="52"/>
+      <c r="O386" s="44"/>
+    </row>
+    <row r="387" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M387" s="52"/>
+      <c r="N387" s="52"/>
+      <c r="O387" s="44"/>
+    </row>
+    <row r="388" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M388" s="52"/>
+      <c r="N388" s="52"/>
+      <c r="O388" s="44"/>
+    </row>
+    <row r="389" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M389" s="52"/>
+      <c r="N389" s="52"/>
+      <c r="O389" s="44"/>
+    </row>
+    <row r="390" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M390" s="52"/>
+      <c r="N390" s="52"/>
+      <c r="O390" s="44"/>
+    </row>
+    <row r="391" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M391" s="52"/>
+      <c r="N391" s="52"/>
+      <c r="O391" s="44"/>
+    </row>
+    <row r="392" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M392" s="52"/>
+      <c r="N392" s="52"/>
+      <c r="O392" s="44"/>
+    </row>
+    <row r="393" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M393" s="52"/>
+      <c r="N393" s="52"/>
+      <c r="O393" s="44"/>
+    </row>
+    <row r="394" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M394" s="52"/>
+      <c r="N394" s="52"/>
+      <c r="O394" s="44"/>
+    </row>
+    <row r="395" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M395" s="52"/>
+      <c r="N395" s="52"/>
+      <c r="O395" s="44"/>
+    </row>
+    <row r="396" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M396" s="52"/>
+      <c r="N396" s="52"/>
+      <c r="O396" s="44"/>
+    </row>
+    <row r="397" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M397" s="52"/>
+      <c r="N397" s="52"/>
+      <c r="O397" s="44"/>
+    </row>
+    <row r="398" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M398" s="52"/>
+      <c r="N398" s="52"/>
+      <c r="O398" s="44"/>
+    </row>
+    <row r="399" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M399" s="52"/>
+      <c r="N399" s="52"/>
+      <c r="O399" s="44"/>
+    </row>
+    <row r="400" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M400" s="52"/>
+      <c r="N400" s="52"/>
+      <c r="O400" s="44"/>
+    </row>
+    <row r="401" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M401" s="52"/>
+      <c r="N401" s="52"/>
+      <c r="O401" s="44"/>
+    </row>
+    <row r="402" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M402" s="52"/>
+      <c r="N402" s="52"/>
+      <c r="O402" s="44"/>
+    </row>
+    <row r="403" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M403" s="52"/>
+      <c r="N403" s="52"/>
+      <c r="O403" s="44"/>
+    </row>
+    <row r="404" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M404" s="52"/>
+      <c r="N404" s="52"/>
+      <c r="O404" s="44"/>
+    </row>
+    <row r="405" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M405" s="52"/>
+      <c r="N405" s="52"/>
+      <c r="O405" s="44"/>
+    </row>
+    <row r="406" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M406" s="52"/>
+      <c r="N406" s="52"/>
+      <c r="O406" s="44"/>
+    </row>
+    <row r="407" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M407" s="52"/>
+      <c r="N407" s="52"/>
+      <c r="O407" s="44"/>
+    </row>
+    <row r="408" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M408" s="52"/>
+      <c r="N408" s="52"/>
+      <c r="O408" s="44"/>
+    </row>
+    <row r="409" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M409" s="52"/>
+      <c r="N409" s="52"/>
+      <c r="O409" s="44"/>
     </row>
   </sheetData>
   <dataConsolidate/>
